--- a/continew-webapi/src/main/resources/static/inventory_count.xlsx
+++ b/continew-webapi/src/main/resources/static/inventory_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java\continew-admin\continew-webapi\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA83CB1-4EF6-4EB9-8562-6DCB918A02E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC70AD-875F-4146-895D-0B5BFE15D9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7270" yWindow="4890" windowWidth="30500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2950" yWindow="3570" windowWidth="30500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,17 +447,17 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.9140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.58203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.9140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
